--- a/Code/Results/Cases/Case_7_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_45/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.453988254147191</v>
+        <v>3.487735435744071</v>
       </c>
       <c r="C2">
-        <v>0.9057793449278506</v>
+        <v>0.9223051633822479</v>
       </c>
       <c r="D2">
-        <v>0.04333747144372779</v>
+        <v>0.219805170300404</v>
       </c>
       <c r="E2">
-        <v>0.1187025572448555</v>
+        <v>0.1769283123620298</v>
       </c>
       <c r="F2">
-        <v>2.408126115255556</v>
+        <v>0.6981650994431519</v>
       </c>
       <c r="G2">
-        <v>0.0007990131146391369</v>
+        <v>0.0007920446973618164</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2262125173707972</v>
+        <v>0.1876790209836301</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.616448214194165</v>
+        <v>1.413120557108471</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.987229856099646</v>
+        <v>3.031029063496533</v>
       </c>
       <c r="C3">
-        <v>0.7816783871808468</v>
+        <v>0.805298374581696</v>
       </c>
       <c r="D3">
-        <v>0.03837856065944578</v>
+        <v>0.1948154025793656</v>
       </c>
       <c r="E3">
-        <v>0.1054628768891632</v>
+        <v>0.1573862517503812</v>
       </c>
       <c r="F3">
-        <v>2.198138406670395</v>
+        <v>0.6601959090400342</v>
       </c>
       <c r="G3">
-        <v>0.0008081916530669981</v>
+        <v>0.0007970935189629533</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2010894911752956</v>
+        <v>0.167334072078603</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.478572682765005</v>
+        <v>1.36685318664945</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.704867826761927</v>
+        <v>2.751312525776768</v>
       </c>
       <c r="C4">
-        <v>0.7064721927355038</v>
+        <v>0.7335352988182819</v>
       </c>
       <c r="D4">
-        <v>0.03535058731190333</v>
+        <v>0.1795883897904247</v>
       </c>
       <c r="E4">
-        <v>0.09752354447082112</v>
+        <v>0.1455666513301885</v>
       </c>
       <c r="F4">
-        <v>2.075413344182081</v>
+        <v>0.639054148840529</v>
       </c>
       <c r="G4">
-        <v>0.0008139641180429594</v>
+        <v>0.0008002875344638276</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1861414758223532</v>
+        <v>0.1551241570609392</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.398345258300907</v>
+        <v>1.344328155405663</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.590709662123459</v>
+        <v>2.637450829189504</v>
       </c>
       <c r="C5">
-        <v>0.6760332828541493</v>
+        <v>0.7042999151950369</v>
       </c>
       <c r="D5">
-        <v>0.0341202597439576</v>
+        <v>0.1734092781735939</v>
       </c>
       <c r="E5">
-        <v>0.09433063933526498</v>
+        <v>0.1407909784455263</v>
       </c>
       <c r="F5">
-        <v>2.026809180420429</v>
+        <v>0.6309501266602595</v>
       </c>
       <c r="G5">
-        <v>0.0008163528944687562</v>
+        <v>0.0008016133636654314</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1801568023402993</v>
+        <v>0.1502132121381266</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.366655836243496</v>
+        <v>1.336536744953904</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.571804234026786</v>
+        <v>2.618550293477483</v>
       </c>
       <c r="C6">
-        <v>0.670990369042471</v>
+        <v>0.6994456093485155</v>
       </c>
       <c r="D6">
-        <v>0.03391616494874938</v>
+        <v>0.1723847191212968</v>
       </c>
       <c r="E6">
-        <v>0.09380287689301525</v>
+        <v>0.1400003352422345</v>
       </c>
       <c r="F6">
-        <v>2.018819254962196</v>
+        <v>0.62963437392618</v>
       </c>
       <c r="G6">
-        <v>0.0008167518071294428</v>
+        <v>0.0008018349977039275</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.179169133088827</v>
+        <v>0.1494014865220237</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.361451441837303</v>
+        <v>1.335324221666241</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.703324775612202</v>
+        <v>2.74977650641722</v>
       </c>
       <c r="C7">
-        <v>0.7060608915575699</v>
+        <v>0.7331409995535978</v>
       </c>
       <c r="D7">
-        <v>0.03533398090402784</v>
+        <v>0.1795049550481025</v>
       </c>
       <c r="E7">
-        <v>0.09748031867481544</v>
+        <v>0.14550208462542</v>
       </c>
       <c r="F7">
-        <v>2.07475234667325</v>
+        <v>0.6389428287512544</v>
       </c>
       <c r="G7">
-        <v>0.0008139961837184938</v>
+        <v>0.0008003053161765306</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1860603488869756</v>
+        <v>0.1550576723249435</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.39791395681101</v>
+        <v>1.344217576193756</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.292072844651216</v>
+        <v>3.330084743899931</v>
       </c>
       <c r="C8">
-        <v>0.862757206522673</v>
+        <v>0.8819375659725779</v>
       </c>
       <c r="D8">
-        <v>0.04162374136179636</v>
+        <v>0.2111623612923523</v>
       </c>
       <c r="E8">
-        <v>0.1140947470435592</v>
+        <v>0.1701503942647875</v>
       </c>
       <c r="F8">
-        <v>2.334336737940049</v>
+        <v>0.6846011505927549</v>
       </c>
       <c r="G8">
-        <v>0.0008021507721363008</v>
+        <v>0.000793766389567278</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2174425380179486</v>
+        <v>0.180601698770154</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.567920286235974</v>
+        <v>1.395889603805216</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.488144981922062</v>
+        <v>4.476227314345749</v>
       </c>
       <c r="C9">
-        <v>1.180021149619222</v>
+        <v>1.174930707244187</v>
       </c>
       <c r="D9">
-        <v>0.05412495874514889</v>
+        <v>0.2743350393308646</v>
       </c>
       <c r="E9">
-        <v>0.148451741557885</v>
+        <v>0.2201127365596562</v>
       </c>
       <c r="F9">
-        <v>2.900408967743999</v>
+        <v>0.7930397663205611</v>
       </c>
       <c r="G9">
-        <v>0.0007799042858026572</v>
+        <v>0.0007816605207487948</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2834483757213491</v>
+        <v>0.2332332573122216</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.941983385914583</v>
+        <v>1.548325045074762</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.404939332037486</v>
+        <v>5.327254658143147</v>
       </c>
       <c r="C10">
-        <v>1.422579537058937</v>
+        <v>1.391816209913713</v>
       </c>
       <c r="D10">
-        <v>0.06346665588461065</v>
+        <v>0.3216677373780357</v>
       </c>
       <c r="E10">
-        <v>0.1752052731232254</v>
+        <v>0.2581219470014631</v>
       </c>
       <c r="F10">
-        <v>3.363386659139451</v>
+        <v>0.8867441218756085</v>
       </c>
       <c r="G10">
-        <v>0.0007639957965818146</v>
+        <v>0.0007731598294713927</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.335739437408165</v>
+        <v>0.2739074170413005</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.250396104209827</v>
+        <v>1.698109802823097</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.833632217782394</v>
+        <v>5.717336403938077</v>
       </c>
       <c r="C11">
-        <v>1.5358792308229</v>
+        <v>1.491056393617612</v>
       </c>
       <c r="D11">
-        <v>0.06776539078608579</v>
+        <v>0.3434624876550174</v>
       </c>
       <c r="E11">
-        <v>0.1878174306745208</v>
+        <v>0.2757718020357842</v>
       </c>
       <c r="F11">
-        <v>3.58748257362862</v>
+        <v>0.9330322114010556</v>
       </c>
       <c r="G11">
-        <v>0.0007568106642998128</v>
+        <v>0.0007693675703654855</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3606364017349932</v>
+        <v>0.2929586001116462</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.400315479094118</v>
+        <v>1.776074778434065</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.99797067595847</v>
+        <v>5.865562556028692</v>
       </c>
       <c r="C12">
-        <v>1.579297092827915</v>
+        <v>1.528739143956443</v>
       </c>
       <c r="D12">
-        <v>0.06940173050707443</v>
+        <v>0.351759002108551</v>
       </c>
       <c r="E12">
-        <v>0.1926679713992172</v>
+        <v>0.2825138942987735</v>
       </c>
       <c r="F12">
-        <v>3.674601745155456</v>
+        <v>0.9511429432451308</v>
       </c>
       <c r="G12">
-        <v>0.0007540931150013251</v>
+        <v>0.0007679413440730178</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.370251790848755</v>
+        <v>0.3002618597135864</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.458698680236083</v>
+        <v>1.807159923084015</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.962482651465223</v>
+        <v>5.833615214597103</v>
       </c>
       <c r="C13">
-        <v>1.569921875157888</v>
+        <v>1.520618592636595</v>
       </c>
       <c r="D13">
-        <v>0.069048912098296</v>
+        <v>0.3499701796138339</v>
       </c>
       <c r="E13">
-        <v>0.1916198090318986</v>
+        <v>0.2810591482763201</v>
       </c>
       <c r="F13">
-        <v>3.655732982605542</v>
+        <v>0.9472156244047483</v>
       </c>
       <c r="G13">
-        <v>0.0007546783133500714</v>
+        <v>0.0007682480863154621</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3681721169248107</v>
+        <v>0.2986848426505588</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.446049099055656</v>
+        <v>1.800393225445504</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.847110264031812</v>
+        <v>5.729520295864234</v>
       </c>
       <c r="C14">
-        <v>1.539440393195491</v>
+        <v>1.494154400264563</v>
       </c>
       <c r="D14">
-        <v>0.06789983403440658</v>
+        <v>0.3441441454090608</v>
       </c>
       <c r="E14">
-        <v>0.1882149233411283</v>
+        <v>0.2763252648663084</v>
       </c>
       <c r="F14">
-        <v>3.594602640481781</v>
+        <v>0.9345101809981173</v>
       </c>
       <c r="G14">
-        <v>0.0007565870496186383</v>
+        <v>0.0007692500426150305</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3614235335550688</v>
+        <v>0.2935575987393264</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.405084958291681</v>
+        <v>1.778599979249748</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.776712627510904</v>
+        <v>5.665828381503729</v>
       </c>
       <c r="C15">
-        <v>1.520839364283745</v>
+        <v>1.477958298232636</v>
       </c>
       <c r="D15">
-        <v>0.06719714411752165</v>
+        <v>0.3405813443926036</v>
       </c>
       <c r="E15">
-        <v>0.186139403096945</v>
+        <v>0.2734334524916022</v>
       </c>
       <c r="F15">
-        <v>3.557463045971303</v>
+        <v>0.9268053260309586</v>
       </c>
       <c r="G15">
-        <v>0.0007577565027208511</v>
+        <v>0.0007698650197612788</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3573151443241613</v>
+        <v>0.290428919906546</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.380210550215466</v>
+        <v>1.765458973000932</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.377184384109796</v>
+        <v>5.301828429273144</v>
       </c>
       <c r="C16">
-        <v>1.415241910292423</v>
+        <v>1.385343887648105</v>
       </c>
       <c r="D16">
-        <v>0.06318683016548476</v>
+        <v>0.3202491490586112</v>
       </c>
       <c r="E16">
-        <v>0.1743908377225551</v>
+        <v>0.2569762854615192</v>
       </c>
       <c r="F16">
-        <v>3.349039066449564</v>
+        <v>0.8837974324227815</v>
       </c>
       <c r="G16">
-        <v>0.0007644660629827969</v>
+        <v>0.0007734090890579356</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3341369783032206</v>
+        <v>0.272674257018835</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.240810872173924</v>
+        <v>1.693224737703474</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.135286112143035</v>
+        <v>5.07934007043383</v>
       </c>
       <c r="C17">
-        <v>1.351277722696068</v>
+        <v>1.328689284477889</v>
       </c>
       <c r="D17">
-        <v>0.06074017459460634</v>
+        <v>0.307847103791957</v>
       </c>
       <c r="E17">
-        <v>0.1673040008926634</v>
+        <v>0.2469770229302597</v>
       </c>
       <c r="F17">
-        <v>3.224844347875433</v>
+        <v>0.8583895268125588</v>
       </c>
       <c r="G17">
-        <v>0.0007685926521934086</v>
+        <v>0.0007756017687685469</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3202206570187371</v>
+        <v>0.26192971283632</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.157909856548685</v>
+        <v>1.651529795029802</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.997225793191546</v>
+        <v>4.951642180928218</v>
       </c>
       <c r="C18">
-        <v>1.314759677442566</v>
+        <v>1.29615617065167</v>
       </c>
       <c r="D18">
-        <v>0.05933745138192847</v>
+        <v>0.3007381594282919</v>
       </c>
       <c r="E18">
-        <v>0.1632686771299845</v>
+        <v>0.2412590857208343</v>
       </c>
       <c r="F18">
-        <v>3.154658364221234</v>
+        <v>0.8441165809722122</v>
       </c>
       <c r="G18">
-        <v>0.0007709713054983471</v>
+        <v>0.0007768700357603315</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3123188899183447</v>
+        <v>0.2558006846345364</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.111117405415342</v>
+        <v>1.628463310531686</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.950656042152559</v>
+        <v>4.90844997983379</v>
       </c>
       <c r="C19">
-        <v>1.302439617539562</v>
+        <v>1.285149574383354</v>
       </c>
       <c r="D19">
-        <v>0.05886325092686207</v>
+        <v>0.2983352208924259</v>
       </c>
       <c r="E19">
-        <v>0.1619090890838777</v>
+        <v>0.2393286247271433</v>
       </c>
       <c r="F19">
-        <v>3.131099883744554</v>
+        <v>0.8393409516831127</v>
       </c>
       <c r="G19">
-        <v>0.0007717776770357201</v>
+        <v>0.0007773006949586594</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3096603143476955</v>
+        <v>0.2537339573133579</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.095420733801973</v>
+        <v>1.620806298997479</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.160923305329902</v>
+        <v>5.102995628031692</v>
       </c>
       <c r="C20">
-        <v>1.358058024275863</v>
+        <v>1.334714630768531</v>
       </c>
       <c r="D20">
-        <v>0.06100014688724542</v>
+        <v>0.3091647606378984</v>
       </c>
       <c r="E20">
-        <v>0.1680541053916187</v>
+        <v>0.2480379599920042</v>
       </c>
       <c r="F20">
-        <v>3.237933808454443</v>
+        <v>0.8610585592872866</v>
       </c>
       <c r="G20">
-        <v>0.0007681528650102297</v>
+        <v>0.0007753676263583476</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.321691272617997</v>
+        <v>0.2630681442687717</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.166641151248442</v>
+        <v>1.655872525596152</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.880940737842252</v>
+        <v>5.760080902303514</v>
       </c>
       <c r="C21">
-        <v>1.548378827998647</v>
+        <v>1.501924624074491</v>
       </c>
       <c r="D21">
-        <v>0.06823710283236295</v>
+        <v>0.3458541708664882</v>
       </c>
       <c r="E21">
-        <v>0.1892128999532545</v>
+        <v>0.2777140768056583</v>
       </c>
       <c r="F21">
-        <v>3.612494003366692</v>
+        <v>0.9382257997783796</v>
       </c>
       <c r="G21">
-        <v>0.0007560263538964987</v>
+        <v>0.0007689554850170421</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3634004248534239</v>
+        <v>0.2950610938999176</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.417071373180519</v>
+        <v>1.784957555747866</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.363372083192814</v>
+        <v>6.192547120615302</v>
       </c>
       <c r="C22">
-        <v>1.675810441670023</v>
+        <v>1.611814788741526</v>
       </c>
       <c r="D22">
-        <v>0.07301726216871884</v>
+        <v>0.3700882261461373</v>
       </c>
       <c r="E22">
-        <v>0.2034825759746184</v>
+        <v>0.2974535923837465</v>
       </c>
       <c r="F22">
-        <v>3.870643365917971</v>
+        <v>0.99208363490105</v>
       </c>
       <c r="G22">
-        <v>0.0007481178477148947</v>
+        <v>0.0007648215287921478</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3917686023712434</v>
+        <v>0.3164944383791379</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.590270880698455</v>
+        <v>1.878502557020113</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.104682291948734</v>
+        <v>5.961424182277199</v>
       </c>
       <c r="C23">
-        <v>1.607486134465262</v>
+        <v>1.553101676107417</v>
       </c>
       <c r="D23">
-        <v>0.07046085647802158</v>
+        <v>0.3571287298433816</v>
       </c>
       <c r="E23">
-        <v>0.195822103773196</v>
+        <v>0.2868843078025805</v>
       </c>
       <c r="F23">
-        <v>3.731523374396289</v>
+        <v>0.9630055222097269</v>
       </c>
       <c r="G23">
-        <v>0.0007523387567105944</v>
+        <v>0.0007670230343876828</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3765161204104714</v>
+        <v>0.3050035025127613</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.496874040127864</v>
+        <v>1.827683195611399</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.149329607804987</v>
+        <v>5.092300291514277</v>
       </c>
       <c r="C24">
-        <v>1.354991859594634</v>
+        <v>1.331990453644266</v>
       </c>
       <c r="D24">
-        <v>0.06088260139720347</v>
+        <v>0.3085689824903568</v>
       </c>
       <c r="E24">
-        <v>0.1677148625048801</v>
+        <v>0.2475582150058031</v>
       </c>
       <c r="F24">
-        <v>3.232012301721767</v>
+        <v>0.8598508522977397</v>
       </c>
       <c r="G24">
-        <v>0.0007683516730974978</v>
+        <v>0.0007754734581791323</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3210261012681741</v>
+        <v>0.2625533101865756</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.162691044699912</v>
+        <v>1.653906370865201</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.158914350007137</v>
+        <v>4.16490134508166</v>
       </c>
       <c r="C25">
-        <v>1.092802326089327</v>
+        <v>1.095452405707192</v>
       </c>
       <c r="D25">
-        <v>0.05071993876428849</v>
+        <v>0.2571032437601417</v>
       </c>
       <c r="E25">
-        <v>0.1389261581035797</v>
+        <v>0.2063919089114634</v>
       </c>
       <c r="F25">
-        <v>2.739989289348216</v>
+        <v>0.7614333335020831</v>
       </c>
       <c r="G25">
-        <v>0.0007858330006387021</v>
+        <v>0.0007848630354020918</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2650114223917086</v>
+        <v>0.2186781337306059</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.835594795205381</v>
+        <v>1.500962815623751</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.487735435744071</v>
+        <v>3.499270517520245</v>
       </c>
       <c r="C2">
-        <v>0.9223051633822479</v>
+        <v>0.9535018146487744</v>
       </c>
       <c r="D2">
-        <v>0.219805170300404</v>
+        <v>0.3081609217170183</v>
       </c>
       <c r="E2">
-        <v>0.1769283123620298</v>
+        <v>0.2342262827281658</v>
       </c>
       <c r="F2">
-        <v>0.6981650994431519</v>
+        <v>0.5132292920040697</v>
       </c>
       <c r="G2">
-        <v>0.0007920446973618164</v>
+        <v>0.2160146069329656</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002749977447729646</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1876790209836301</v>
+        <v>0.2037567372945333</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.09986241796688322</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2391875880485159</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,45 +466,51 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.413120557108471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.8343758579394347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.031029063496533</v>
+        <v>3.05172690559192</v>
       </c>
       <c r="C3">
-        <v>0.805298374581696</v>
+        <v>0.8344255977166029</v>
       </c>
       <c r="D3">
-        <v>0.1948154025793656</v>
+        <v>0.2756882866724055</v>
       </c>
       <c r="E3">
-        <v>0.1573862517503812</v>
+        <v>0.2101475714627981</v>
       </c>
       <c r="F3">
-        <v>0.6601959090400342</v>
+        <v>0.4868309339436578</v>
       </c>
       <c r="G3">
-        <v>0.0007970935189629533</v>
+        <v>0.2062318849820173</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001408470740549284</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.167334072078603</v>
+        <v>0.2046719829152863</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1112690413237347</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2150393130280364</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,45 +519,51 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.36685318664945</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.8152179780757365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.751312525776768</v>
+        <v>2.776559985967197</v>
       </c>
       <c r="C4">
-        <v>0.7335352988182819</v>
+        <v>0.7612098491437678</v>
       </c>
       <c r="D4">
-        <v>0.1795883897904247</v>
+        <v>0.2557575489460504</v>
       </c>
       <c r="E4">
-        <v>0.1455666513301885</v>
+        <v>0.1953578652714398</v>
       </c>
       <c r="F4">
-        <v>0.639054148840529</v>
+        <v>0.4714456035421293</v>
       </c>
       <c r="G4">
-        <v>0.0008002875344638276</v>
+        <v>0.2009065778630372</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0007866850270538128</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1551241570609392</v>
+        <v>0.20566883555027</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1188402005316931</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2001977125047603</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,45 +572,51 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.344328155405663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.805801572979604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.637450829189504</v>
+        <v>2.664314440677799</v>
       </c>
       <c r="C5">
-        <v>0.7042999151950369</v>
+        <v>0.7313437693508149</v>
       </c>
       <c r="D5">
-        <v>0.1734092781735939</v>
+        <v>0.2476356028547997</v>
       </c>
       <c r="E5">
-        <v>0.1407909784455263</v>
+        <v>0.1893276909075858</v>
       </c>
       <c r="F5">
-        <v>0.6309501266602595</v>
+        <v>0.4653719818341671</v>
       </c>
       <c r="G5">
-        <v>0.0008016133636654314</v>
+        <v>0.1988979202463099</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0005808424618012342</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1502132121381266</v>
+        <v>0.206179993611407</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1220620791538503</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1941436823498677</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,45 +625,51 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.336536744953904</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8025241757284931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.618550293477483</v>
+        <v>2.645668818577292</v>
       </c>
       <c r="C6">
-        <v>0.6994456093485155</v>
+        <v>0.7263825952566378</v>
       </c>
       <c r="D6">
-        <v>0.1723847191212968</v>
+        <v>0.2462869053436663</v>
       </c>
       <c r="E6">
-        <v>0.1400003352422345</v>
+        <v>0.1883261343278626</v>
       </c>
       <c r="F6">
-        <v>0.62963437392618</v>
+        <v>0.4643749871752476</v>
       </c>
       <c r="G6">
-        <v>0.0008018349977039275</v>
+        <v>0.1985738539075328</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0005494414422033689</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1494014865220237</v>
+        <v>0.2062710826568122</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1226051436442708</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1931379894187444</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,45 +678,51 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.335324221666241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8020129201992177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.74977650641722</v>
+        <v>2.775046683849382</v>
       </c>
       <c r="C7">
-        <v>0.7331409995535978</v>
+        <v>0.7608071918998291</v>
       </c>
       <c r="D7">
-        <v>0.1795049550481025</v>
+        <v>0.2556480160347405</v>
       </c>
       <c r="E7">
-        <v>0.14550208462542</v>
+        <v>0.1952765558630354</v>
       </c>
       <c r="F7">
-        <v>0.6389428287512544</v>
+        <v>0.47136291309819</v>
       </c>
       <c r="G7">
-        <v>0.0008003053161765306</v>
+        <v>0.2008788474722678</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0007837206608980463</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1550576723249435</v>
+        <v>0.2056753100559519</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.118883106861345</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2001160928576908</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,45 +731,51 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.344217576193756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8057551450335154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.330084743899931</v>
+        <v>3.345022965111582</v>
       </c>
       <c r="C8">
-        <v>0.8819375659725779</v>
+        <v>0.9124628604666896</v>
       </c>
       <c r="D8">
-        <v>0.2111623612923523</v>
+        <v>0.2969615855873684</v>
       </c>
       <c r="E8">
-        <v>0.1701503942647875</v>
+        <v>0.2259238489722577</v>
       </c>
       <c r="F8">
-        <v>0.6846011505927549</v>
+        <v>0.5039494735936074</v>
       </c>
       <c r="G8">
-        <v>0.000793766389567278</v>
+        <v>0.2124940469036787</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002243541110242497</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.180601698770154</v>
+        <v>0.2039793356467214</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1036738948755902</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2308628316421988</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,45 +784,51 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.395889603805216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.8272646202024134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.476227314345749</v>
+        <v>4.460768983996957</v>
       </c>
       <c r="C9">
-        <v>1.174930707244187</v>
+        <v>1.209274025794457</v>
       </c>
       <c r="D9">
-        <v>0.2743350393308646</v>
+        <v>0.3781331148212814</v>
       </c>
       <c r="E9">
-        <v>0.2201127365596562</v>
+        <v>0.2860748050595703</v>
       </c>
       <c r="F9">
-        <v>0.7930397663205611</v>
+        <v>0.5749061179553721</v>
       </c>
       <c r="G9">
-        <v>0.0007816605207487948</v>
+        <v>0.2411430972287363</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.006859415352498566</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2332332573122216</v>
+        <v>0.2043124173813169</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.07863735821567719</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2911542106467522</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,45 +837,51 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.548325045074762</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.88948770228059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.327254658143147</v>
+        <v>5.280191026773196</v>
       </c>
       <c r="C10">
-        <v>1.391816209913713</v>
+        <v>1.424337818531626</v>
       </c>
       <c r="D10">
-        <v>0.3216677373780357</v>
+        <v>0.429539771834925</v>
       </c>
       <c r="E10">
-        <v>0.2581219470014631</v>
+        <v>0.3192788397562296</v>
       </c>
       <c r="F10">
-        <v>0.8867441218756085</v>
+        <v>0.6205553916050519</v>
       </c>
       <c r="G10">
-        <v>0.0007731598294713927</v>
+        <v>0.2611241576814223</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01141267585341854</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2739074170413005</v>
+        <v>0.2044420187448921</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.06276545285280655</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3207907599730078</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,45 +890,51 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.698109802823097</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9326536066555207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.717336403938077</v>
+        <v>5.647643678298323</v>
       </c>
       <c r="C11">
-        <v>1.491056393617612</v>
+        <v>1.495765941501645</v>
       </c>
       <c r="D11">
-        <v>0.3434624876550174</v>
+        <v>0.3816487412225484</v>
       </c>
       <c r="E11">
-        <v>0.2757718020357842</v>
+        <v>0.2450491557521559</v>
       </c>
       <c r="F11">
-        <v>0.9330322114010556</v>
+        <v>0.5452776702897069</v>
       </c>
       <c r="G11">
-        <v>0.0007693675703654855</v>
+        <v>0.2264885001093688</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02986437048532764</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2929586001116462</v>
+        <v>0.1827316321348391</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.05068457011999472</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2207020320236026</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,45 +943,51 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.776074778434065</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.8139557911776905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.865562556028692</v>
+        <v>5.784581206905955</v>
       </c>
       <c r="C12">
-        <v>1.528739143956443</v>
+        <v>1.510069322825018</v>
       </c>
       <c r="D12">
-        <v>0.351759002108551</v>
+        <v>0.3332235487657442</v>
       </c>
       <c r="E12">
-        <v>0.2825138942987735</v>
+        <v>0.1854684597779119</v>
       </c>
       <c r="F12">
-        <v>0.9511429432451308</v>
+        <v>0.475564151700226</v>
       </c>
       <c r="G12">
-        <v>0.0007679413440730178</v>
+        <v>0.1945984820706457</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06793354372246085</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3002618597135864</v>
+        <v>0.1649539918564145</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.04536179434547072</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1503381513373938</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,45 +996,51 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.807159923084015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.7091779486751619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.833615214597103</v>
+        <v>5.750613840752862</v>
       </c>
       <c r="C13">
-        <v>1.520618592636595</v>
+        <v>1.481069017928689</v>
       </c>
       <c r="D13">
-        <v>0.3499701796138339</v>
+        <v>0.2818848657272355</v>
       </c>
       <c r="E13">
-        <v>0.2810591482763201</v>
+        <v>0.1339670756029072</v>
       </c>
       <c r="F13">
-        <v>0.9472156244047483</v>
+        <v>0.4061316521317693</v>
       </c>
       <c r="G13">
-        <v>0.0007682480863154621</v>
+        <v>0.1628225005362722</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1226270728675019</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2986848426505588</v>
+        <v>0.1490514214815732</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.04457175254339962</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09891279395449004</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,45 +1049,51 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.800393225445504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6084659007860154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.729520295864234</v>
+        <v>5.649424665611264</v>
       </c>
       <c r="C14">
-        <v>1.494154400264563</v>
+        <v>1.441245817394929</v>
       </c>
       <c r="D14">
-        <v>0.3441441454090608</v>
+        <v>0.2453625588414923</v>
       </c>
       <c r="E14">
-        <v>0.2763252648663084</v>
+        <v>0.1032213743847805</v>
       </c>
       <c r="F14">
-        <v>0.9345101809981173</v>
+        <v>0.3586122143553965</v>
       </c>
       <c r="G14">
-        <v>0.0007692500426150305</v>
+        <v>0.141083715523358</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1710868021907714</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2935575987393264</v>
+        <v>0.1389567029783763</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.0462520262457593</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07442719600972048</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,45 +1102,51 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.778599979249748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5411614268102056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.665828381503729</v>
+        <v>5.588321338676053</v>
       </c>
       <c r="C15">
-        <v>1.477958298232636</v>
+        <v>1.422424298845499</v>
       </c>
       <c r="D15">
-        <v>0.3405813443926036</v>
+        <v>0.2355692464460475</v>
       </c>
       <c r="E15">
-        <v>0.2734334524916022</v>
+        <v>0.09622152563729003</v>
       </c>
       <c r="F15">
-        <v>0.9268053260309586</v>
+        <v>0.3467308872832504</v>
       </c>
       <c r="G15">
-        <v>0.0007698650197612788</v>
+        <v>0.1356356936475294</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1832206159079135</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.290428919906546</v>
+        <v>0.1368303025531006</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.04739315808791922</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06990074094047038</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,45 +1155,51 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.765458973000932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.5251165986195758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.301828429273144</v>
+        <v>5.241227695443911</v>
       </c>
       <c r="C16">
-        <v>1.385343887648105</v>
+        <v>1.336112934018445</v>
       </c>
       <c r="D16">
-        <v>0.3202491490586112</v>
+        <v>0.2253571006528858</v>
       </c>
       <c r="E16">
-        <v>0.2569762854615192</v>
+        <v>0.09397972547244393</v>
       </c>
       <c r="F16">
-        <v>0.8837974324227815</v>
+        <v>0.3419317214810889</v>
       </c>
       <c r="G16">
-        <v>0.0007734090890579356</v>
+        <v>0.1333496219713979</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1686969065121247</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.272674257018835</v>
+        <v>0.1397690621781322</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.05338249337686962</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06923638897765017</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,45 +1208,51 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.693224737703474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5262036856861698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.07934007043383</v>
+        <v>5.029475587038405</v>
       </c>
       <c r="C17">
-        <v>1.328689284477889</v>
+        <v>1.291154987706648</v>
       </c>
       <c r="D17">
-        <v>0.307847103791957</v>
+        <v>0.2364082462756585</v>
       </c>
       <c r="E17">
-        <v>0.2469770229302597</v>
+        <v>0.1074163258143876</v>
       </c>
       <c r="F17">
-        <v>0.8583895268125588</v>
+        <v>0.3631073824049125</v>
       </c>
       <c r="G17">
-        <v>0.0007756017687685469</v>
+        <v>0.1430698266394046</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1300273020304559</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.26192971283632</v>
+        <v>0.1473986407634911</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.05716747756064566</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0796507102724533</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,45 +1261,51 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.651529795029802</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.562660447614121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.951642180928218</v>
+        <v>4.90940475125484</v>
       </c>
       <c r="C18">
-        <v>1.29615617065167</v>
+        <v>1.276364636604569</v>
       </c>
       <c r="D18">
-        <v>0.3007381594282919</v>
+        <v>0.2686503892004168</v>
       </c>
       <c r="E18">
-        <v>0.2412590857208343</v>
+        <v>0.1410107925756208</v>
       </c>
       <c r="F18">
-        <v>0.8441165809722122</v>
+        <v>0.4109560104023942</v>
       </c>
       <c r="G18">
-        <v>0.0007768700357603315</v>
+        <v>0.1650287522622165</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07712717528868041</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2558006846345364</v>
+        <v>0.1602329201279673</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.06013012391084771</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1108761013917317</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,45 +1314,51 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.628463310531686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.6360322119744382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.90844997983379</v>
+        <v>4.871469064448604</v>
       </c>
       <c r="C19">
-        <v>1.285149574383354</v>
+        <v>1.286759599300808</v>
       </c>
       <c r="D19">
-        <v>0.2983352208924259</v>
+        <v>0.3183668144737481</v>
       </c>
       <c r="E19">
-        <v>0.2393286247271433</v>
+        <v>0.1963394655930415</v>
       </c>
       <c r="F19">
-        <v>0.8393409516831127</v>
+        <v>0.4803098673125916</v>
       </c>
       <c r="G19">
-        <v>0.0007773006949586594</v>
+        <v>0.1968753807432435</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03273327730926212</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2537339573133579</v>
+        <v>0.1769896296991647</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.06334042038444876</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1718925640676048</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,45 +1367,51 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.620806298997479</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.738642850232381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.102995628031692</v>
+        <v>5.06492878366754</v>
       </c>
       <c r="C20">
-        <v>1.334714630768531</v>
+        <v>1.367736334709832</v>
       </c>
       <c r="D20">
-        <v>0.3091647606378984</v>
+        <v>0.4156783138365796</v>
       </c>
       <c r="E20">
-        <v>0.2480379599920042</v>
+        <v>0.3100857127942476</v>
       </c>
       <c r="F20">
-        <v>0.8610585592872866</v>
+        <v>0.6077227321612</v>
       </c>
       <c r="G20">
-        <v>0.0007753676263583476</v>
+        <v>0.2553400669641448</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01009645626664346</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2630681442687717</v>
+        <v>0.2041122650992548</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.06664691490162866</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.312375805213577</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,45 +1420,51 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.655872525596152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9195627440468428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.760080902303514</v>
+        <v>5.695263828633813</v>
       </c>
       <c r="C21">
-        <v>1.501924624074491</v>
+        <v>1.537509129139607</v>
       </c>
       <c r="D21">
-        <v>0.3458541708664882</v>
+        <v>0.4683278092648493</v>
       </c>
       <c r="E21">
-        <v>0.2777140768056583</v>
+        <v>0.3529089417466764</v>
       </c>
       <c r="F21">
-        <v>0.9382257997783796</v>
+        <v>0.6624268500157768</v>
       </c>
       <c r="G21">
-        <v>0.0007689554850170421</v>
+        <v>0.2804613385934402</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01427730082928863</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2950610938999176</v>
+        <v>0.2092037373747928</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.05691481799821396</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3581371866784622</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,45 +1473,51 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.784957555747866</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.9838879297278424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.192547120615302</v>
+        <v>6.107489380409675</v>
       </c>
       <c r="C22">
-        <v>1.611814788741526</v>
+        <v>1.647064995377548</v>
       </c>
       <c r="D22">
-        <v>0.3700882261461373</v>
+        <v>0.4985239625505642</v>
       </c>
       <c r="E22">
-        <v>0.2974535923837465</v>
+        <v>0.3752960827191956</v>
       </c>
       <c r="F22">
-        <v>0.99208363490105</v>
+        <v>0.6934799216576835</v>
       </c>
       <c r="G22">
-        <v>0.0007648215287921478</v>
+        <v>0.2951689754330715</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01723964886621654</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3164944383791379</v>
+        <v>0.211743700439186</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.05087959175770607</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.380582782566691</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,45 +1526,51 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.878502557020113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.020642547921994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.961424182277199</v>
+        <v>5.88741055307662</v>
       </c>
       <c r="C23">
-        <v>1.553101676107417</v>
+        <v>1.588578664977149</v>
       </c>
       <c r="D23">
-        <v>0.3571287298433816</v>
+        <v>0.4823982769947861</v>
       </c>
       <c r="E23">
-        <v>0.2868843078025805</v>
+        <v>0.3633396321019617</v>
       </c>
       <c r="F23">
-        <v>0.9630055222097269</v>
+        <v>0.6767938909396989</v>
       </c>
       <c r="G23">
-        <v>0.0007670230343876828</v>
+        <v>0.287223194498182</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0156291445115152</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3050035025127613</v>
+        <v>0.2103346459253572</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.05402988168758238</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3685943456880949</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,45 +1579,51 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.827683195611399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.000711076531587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.092300291514277</v>
+        <v>5.055159985557793</v>
       </c>
       <c r="C24">
-        <v>1.331990453644266</v>
+        <v>1.367340149771621</v>
       </c>
       <c r="D24">
-        <v>0.3085689824903568</v>
+        <v>0.4215146520172084</v>
       </c>
       <c r="E24">
-        <v>0.2475582150058031</v>
+        <v>0.3182159153362605</v>
       </c>
       <c r="F24">
-        <v>0.8598508522977397</v>
+        <v>0.6159744207339131</v>
       </c>
       <c r="G24">
-        <v>0.0007754734581791323</v>
+        <v>0.2591554583724047</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01014970658795033</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2625533101865756</v>
+        <v>0.2061340265002869</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.06746527218626763</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3233637840505139</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,45 +1632,51 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.653906370865201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9318827056774097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.16490134508166</v>
+        <v>4.15898735426947</v>
       </c>
       <c r="C25">
-        <v>1.095452405707192</v>
+        <v>1.129005359584824</v>
       </c>
       <c r="D25">
-        <v>0.2571032437601417</v>
+        <v>0.3561428448696802</v>
       </c>
       <c r="E25">
-        <v>0.2063919089114634</v>
+        <v>0.269782805054696</v>
       </c>
       <c r="F25">
-        <v>0.7614333335020831</v>
+        <v>0.554878947975439</v>
       </c>
       <c r="G25">
-        <v>0.0007848630354020918</v>
+        <v>0.2326962982660064</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.005401091298267713</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2186781337306059</v>
+        <v>0.2038003021629038</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.08485633165790674</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2748274575451433</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.500962815623751</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.8703015649091554</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.499270517520245</v>
+        <v>3.496151531641203</v>
       </c>
       <c r="C2">
-        <v>0.9535018146487744</v>
+        <v>0.9593031800577023</v>
       </c>
       <c r="D2">
-        <v>0.3081609217170183</v>
+        <v>0.3074138070323471</v>
       </c>
       <c r="E2">
-        <v>0.2342262827281658</v>
+        <v>0.233301754901575</v>
       </c>
       <c r="F2">
-        <v>0.5132292920040697</v>
+        <v>0.5141741800879274</v>
       </c>
       <c r="G2">
-        <v>0.2160146069329656</v>
+        <v>0.2001065397453061</v>
       </c>
       <c r="H2">
-        <v>0.002749977447729646</v>
+        <v>0.002528934398756566</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2037567372945333</v>
+        <v>0.2466234524277198</v>
       </c>
       <c r="K2">
-        <v>0.09986241796688322</v>
+        <v>0.1011238301905175</v>
       </c>
       <c r="L2">
-        <v>0.2391875880485159</v>
+        <v>0.08310056822071132</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01122519059365223</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2380187157415534</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,51 +478,57 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8343758579394347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8395158804224394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.05172690559192</v>
+        <v>3.050961026061032</v>
       </c>
       <c r="C3">
-        <v>0.8344255977166029</v>
+        <v>0.8318980035952848</v>
       </c>
       <c r="D3">
-        <v>0.2756882866724055</v>
+        <v>0.2746988256359941</v>
       </c>
       <c r="E3">
-        <v>0.2101475714627981</v>
+        <v>0.2094251713303663</v>
       </c>
       <c r="F3">
-        <v>0.4868309339436578</v>
+        <v>0.4893299596614966</v>
       </c>
       <c r="G3">
-        <v>0.2062318849820173</v>
+        <v>0.1912329440361233</v>
       </c>
       <c r="H3">
-        <v>0.001408470740549284</v>
+        <v>0.001303403212664977</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2046719829152863</v>
+        <v>0.2462867391001708</v>
       </c>
       <c r="K3">
-        <v>0.1112690413237347</v>
+        <v>0.1118028606620278</v>
       </c>
       <c r="L3">
-        <v>0.2150393130280364</v>
+        <v>0.08884595858024547</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01418783516912886</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2143551322893131</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,51 +537,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8152179780757365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.823473656425648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.776559985967197</v>
+        <v>2.777097223785972</v>
       </c>
       <c r="C4">
-        <v>0.7612098491437678</v>
+        <v>0.7537992497900916</v>
       </c>
       <c r="D4">
-        <v>0.2557575489460504</v>
+        <v>0.2546441645221762</v>
       </c>
       <c r="E4">
-        <v>0.1953578652714398</v>
+        <v>0.1947628533747547</v>
       </c>
       <c r="F4">
-        <v>0.4714456035421293</v>
+        <v>0.4747472740196983</v>
       </c>
       <c r="G4">
-        <v>0.2009065778630372</v>
+        <v>0.1864323488306638</v>
       </c>
       <c r="H4">
-        <v>0.0007866850270538128</v>
+        <v>0.0007331374731697204</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.20566883555027</v>
+        <v>0.2463149467801315</v>
       </c>
       <c r="K4">
-        <v>0.1188402005316931</v>
+        <v>0.1188356323983886</v>
       </c>
       <c r="L4">
-        <v>0.2001977125047603</v>
+        <v>0.09275175610734898</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01650051172475653</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1998030919234424</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,51 +596,57 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.805801572979604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8155233027994484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.664314440677799</v>
+        <v>2.665351885795587</v>
       </c>
       <c r="C5">
-        <v>0.7313437693508149</v>
+        <v>0.7220026235260661</v>
       </c>
       <c r="D5">
-        <v>0.2476356028547997</v>
+        <v>0.2464782321806922</v>
       </c>
       <c r="E5">
-        <v>0.1893276909075858</v>
+        <v>0.1887856626403845</v>
       </c>
       <c r="F5">
-        <v>0.4653719818341671</v>
+        <v>0.4689640084181192</v>
       </c>
       <c r="G5">
-        <v>0.1988979202463099</v>
+        <v>0.1846287360378014</v>
       </c>
       <c r="H5">
-        <v>0.0005808424618012342</v>
+        <v>0.0005437147849747248</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.206179993611407</v>
+        <v>0.2463832989509527</v>
       </c>
       <c r="K5">
-        <v>0.1220620791538503</v>
+        <v>0.1218163929929164</v>
       </c>
       <c r="L5">
-        <v>0.1941436823498677</v>
+        <v>0.09443844833796433</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01756339742309376</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1938653292433727</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,51 +655,57 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8025241757284931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.812735595015269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.645668818577292</v>
+        <v>2.646787597381945</v>
       </c>
       <c r="C6">
-        <v>0.7263825952566378</v>
+        <v>0.7167245017871267</v>
       </c>
       <c r="D6">
-        <v>0.2462869053436663</v>
+        <v>0.2451226314904886</v>
       </c>
       <c r="E6">
-        <v>0.1883261343278626</v>
+        <v>0.1877929756708951</v>
       </c>
       <c r="F6">
-        <v>0.4643749871752476</v>
+        <v>0.4680130480934324</v>
       </c>
       <c r="G6">
-        <v>0.1985738539075328</v>
+        <v>0.1843381762898275</v>
       </c>
       <c r="H6">
-        <v>0.0005494414422033689</v>
+        <v>0.0005147745804887638</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2062710826568122</v>
+        <v>0.2463980193367803</v>
       </c>
       <c r="K6">
-        <v>0.1226051436442708</v>
+        <v>0.1223181456741633</v>
       </c>
       <c r="L6">
-        <v>0.1931379894187444</v>
+        <v>0.09472426278765766</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01774705913978436</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1928788461509754</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,51 +714,57 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8020129201992177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8122992762442749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.775046683849382</v>
+        <v>2.775542407024261</v>
       </c>
       <c r="C7">
-        <v>0.7608071918998291</v>
+        <v>0.7528008565167852</v>
       </c>
       <c r="D7">
-        <v>0.2556480160347405</v>
+        <v>0.2547796025527873</v>
       </c>
       <c r="E7">
-        <v>0.1952765558630354</v>
+        <v>0.1947316007150732</v>
       </c>
       <c r="F7">
-        <v>0.47136291309819</v>
+        <v>0.4738019554425748</v>
       </c>
       <c r="G7">
-        <v>0.2008788474722678</v>
+        <v>0.188576353306793</v>
       </c>
       <c r="H7">
-        <v>0.0007837206608980463</v>
+        <v>0.0007285502312386338</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2056753100559519</v>
+        <v>0.2429482594335042</v>
       </c>
       <c r="K7">
-        <v>0.118883106861345</v>
+        <v>0.11875457416724</v>
       </c>
       <c r="L7">
-        <v>0.2001160928576908</v>
+        <v>0.09267399743549198</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.01651867031740328</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1996687611768877</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,51 +773,57 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.8057551450335154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8133497815975517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.345022965111582</v>
+        <v>3.342583109832674</v>
       </c>
       <c r="C8">
-        <v>0.9124628604666896</v>
+        <v>0.9134232533697002</v>
       </c>
       <c r="D8">
-        <v>0.2969615855873684</v>
+        <v>0.2969518725805926</v>
       </c>
       <c r="E8">
-        <v>0.2259238489722577</v>
+        <v>0.2252363076662576</v>
       </c>
       <c r="F8">
-        <v>0.5039494735936074</v>
+        <v>0.5025904887069714</v>
       </c>
       <c r="G8">
-        <v>0.2124940469036787</v>
+        <v>0.2041698509791701</v>
       </c>
       <c r="H8">
-        <v>0.002243541110242497</v>
+        <v>0.002057181314895185</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2039793356467214</v>
+        <v>0.2355456222213448</v>
       </c>
       <c r="K8">
-        <v>0.1036738948755902</v>
+        <v>0.104334638069929</v>
       </c>
       <c r="L8">
-        <v>0.2308628316421988</v>
+        <v>0.08474343049741506</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.01210753543097842</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2296843221017824</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,51 +832,57 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.8272646202024134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.8265373170438153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.460768983996957</v>
+        <v>4.451388277616672</v>
       </c>
       <c r="C9">
-        <v>1.209274025794457</v>
+        <v>1.231660136375297</v>
       </c>
       <c r="D9">
-        <v>0.3781331148212814</v>
+        <v>0.3790985649968661</v>
       </c>
       <c r="E9">
-        <v>0.2860748050595703</v>
+        <v>0.2849418568812894</v>
       </c>
       <c r="F9">
-        <v>0.5749061179553721</v>
+        <v>0.5679751939675128</v>
       </c>
       <c r="G9">
-        <v>0.2411430972287363</v>
+        <v>0.2323866182959051</v>
       </c>
       <c r="H9">
-        <v>0.006859415352498566</v>
+        <v>0.006247206189675891</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2043124173813169</v>
+        <v>0.2348487972981914</v>
       </c>
       <c r="K9">
-        <v>0.07863735821567719</v>
+        <v>0.08049474405925494</v>
       </c>
       <c r="L9">
-        <v>0.2911542106467522</v>
+        <v>0.07256480703250823</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.007524271804685512</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.288660376712869</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,51 +891,57 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.88948770228059</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8764122579881644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.280191026773196</v>
+        <v>5.264325653093465</v>
       </c>
       <c r="C10">
-        <v>1.424337818531626</v>
+        <v>1.458380484050338</v>
       </c>
       <c r="D10">
-        <v>0.429539771834925</v>
+        <v>0.4326291523099997</v>
       </c>
       <c r="E10">
-        <v>0.3192788397562296</v>
+        <v>0.3180880848061634</v>
       </c>
       <c r="F10">
-        <v>0.6205553916050519</v>
+        <v>0.6043118111204819</v>
       </c>
       <c r="G10">
-        <v>0.2611241576814223</v>
+        <v>0.2653771885979523</v>
       </c>
       <c r="H10">
-        <v>0.01141267585341854</v>
+        <v>0.01034205610863159</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2044420187448921</v>
+        <v>0.2157120305148368</v>
       </c>
       <c r="K10">
-        <v>0.06276545285280655</v>
+        <v>0.06462932132230659</v>
       </c>
       <c r="L10">
-        <v>0.3207907599730078</v>
+        <v>0.06507856732835471</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.006363654630948901</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3170436241424568</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,51 +950,57 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.9326536066555207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8973309012919941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.647643678298323</v>
+        <v>5.628795996395638</v>
       </c>
       <c r="C11">
-        <v>1.495765941501645</v>
+        <v>1.515307073219049</v>
       </c>
       <c r="D11">
-        <v>0.3816487412225484</v>
+        <v>0.3864708034827089</v>
       </c>
       <c r="E11">
-        <v>0.2450491557521559</v>
+        <v>0.2439873043615179</v>
       </c>
       <c r="F11">
-        <v>0.5452776702897069</v>
+        <v>0.5228651436293106</v>
       </c>
       <c r="G11">
-        <v>0.2264885001093688</v>
+        <v>0.2604652466875237</v>
       </c>
       <c r="H11">
-        <v>0.02986437048532764</v>
+        <v>0.02866144301114559</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1827316321348391</v>
+        <v>0.1668574832233531</v>
       </c>
       <c r="K11">
-        <v>0.05068457011999472</v>
+        <v>0.0538181313879611</v>
       </c>
       <c r="L11">
-        <v>0.2207020320236026</v>
+        <v>0.06114761412069847</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.003729128725226794</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2167486393239031</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,51 +1009,57 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.8139557911776905</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7635662691733245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.784581206905955</v>
+        <v>5.76483478501649</v>
       </c>
       <c r="C12">
-        <v>1.510069322825018</v>
+        <v>1.516771591267855</v>
       </c>
       <c r="D12">
-        <v>0.3332235487657442</v>
+        <v>0.3380049682638884</v>
       </c>
       <c r="E12">
-        <v>0.1854684597779119</v>
+        <v>0.1842799740735757</v>
       </c>
       <c r="F12">
-        <v>0.475564151700226</v>
+        <v>0.4534850852977499</v>
       </c>
       <c r="G12">
-        <v>0.1945984820706457</v>
+        <v>0.2408172772085067</v>
       </c>
       <c r="H12">
-        <v>0.06793354372246085</v>
+        <v>0.06672331596468695</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1649539918564145</v>
+        <v>0.1444597970484551</v>
       </c>
       <c r="K12">
-        <v>0.04536179434547072</v>
+        <v>0.04992894802288039</v>
       </c>
       <c r="L12">
-        <v>0.1503381513373938</v>
+        <v>0.06025410257559383</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.002194610438274402</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.146698333257028</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,51 +1068,57 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.7091779486751619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6594484318140843</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.750613840752862</v>
+        <v>5.731710692980243</v>
       </c>
       <c r="C13">
-        <v>1.481069017928689</v>
+        <v>1.477177990204495</v>
       </c>
       <c r="D13">
-        <v>0.2818848657272355</v>
+        <v>0.2849755919889532</v>
       </c>
       <c r="E13">
-        <v>0.1339670756029072</v>
+        <v>0.1324736868626957</v>
       </c>
       <c r="F13">
-        <v>0.4061316521317693</v>
+        <v>0.3902258102093299</v>
       </c>
       <c r="G13">
-        <v>0.1628225005362722</v>
+        <v>0.2042355512636789</v>
       </c>
       <c r="H13">
-        <v>0.1226270728675019</v>
+        <v>0.1215135362979396</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1490514214815732</v>
+        <v>0.1383706178936279</v>
       </c>
       <c r="K13">
-        <v>0.04457175254339962</v>
+        <v>0.0502962726630054</v>
       </c>
       <c r="L13">
-        <v>0.09891279395449004</v>
+        <v>0.06079028479498749</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.001483507105055848</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.09591409399387274</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,51 +1127,57 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.6084659007860154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.5734756517473585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.649424665611264</v>
+        <v>5.631860660723987</v>
       </c>
       <c r="C14">
-        <v>1.441245817394929</v>
+        <v>1.43093076918791</v>
       </c>
       <c r="D14">
-        <v>0.2453625588414923</v>
+        <v>0.2467559083102628</v>
       </c>
       <c r="E14">
-        <v>0.1032213743847805</v>
+        <v>0.1015198769582462</v>
       </c>
       <c r="F14">
-        <v>0.3586122143553965</v>
+        <v>0.348901736491058</v>
       </c>
       <c r="G14">
-        <v>0.141083715523358</v>
+        <v>0.1729793893494787</v>
       </c>
       <c r="H14">
-        <v>0.1710868021907714</v>
+        <v>0.1700794123974703</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1389567029783763</v>
+        <v>0.1395508220371298</v>
       </c>
       <c r="K14">
-        <v>0.0462520262457593</v>
+        <v>0.05234855419705164</v>
       </c>
       <c r="L14">
-        <v>0.07442719600972048</v>
+        <v>0.06161161681279648</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.001472465953787735</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0719232967756458</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,51 +1186,57 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.5411614268102056</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5210504313238147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.588321338676053</v>
+        <v>5.571438524309372</v>
       </c>
       <c r="C15">
-        <v>1.422424298845499</v>
+        <v>1.410944537450973</v>
       </c>
       <c r="D15">
-        <v>0.2355692464460475</v>
+        <v>0.2363238881171412</v>
       </c>
       <c r="E15">
-        <v>0.09622152563729003</v>
+        <v>0.09447126057755995</v>
       </c>
       <c r="F15">
-        <v>0.3467308872832504</v>
+        <v>0.3393688335041816</v>
       </c>
       <c r="G15">
-        <v>0.1356356936475294</v>
+        <v>0.1628060825327111</v>
       </c>
       <c r="H15">
-        <v>0.1832206159079135</v>
+        <v>0.1822619888113337</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1368303025531006</v>
+        <v>0.142189017976829</v>
       </c>
       <c r="K15">
-        <v>0.04739315808791922</v>
+        <v>0.05343986823500169</v>
       </c>
       <c r="L15">
-        <v>0.06990074094047038</v>
+        <v>0.06192955274731826</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.001602316610526677</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06755065557684681</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,51 +1245,57 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.5251165986195758</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5106770953483846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.241227695443911</v>
+        <v>5.227623326085677</v>
       </c>
       <c r="C16">
-        <v>1.336112934018445</v>
+        <v>1.327579902939988</v>
       </c>
       <c r="D16">
-        <v>0.2253571006528858</v>
+        <v>0.224079769200074</v>
       </c>
       <c r="E16">
-        <v>0.09397972547244393</v>
+        <v>0.09218715904653507</v>
       </c>
       <c r="F16">
-        <v>0.3419317214810889</v>
+        <v>0.3422244401562082</v>
       </c>
       <c r="G16">
-        <v>0.1333496219713979</v>
+        <v>0.1404749570549058</v>
       </c>
       <c r="H16">
-        <v>0.1686969065121247</v>
+        <v>0.1679606084802003</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1397690621781322</v>
+        <v>0.1653171259676682</v>
       </c>
       <c r="K16">
-        <v>0.05338249337686962</v>
+        <v>0.0586683854924086</v>
       </c>
       <c r="L16">
-        <v>0.06923638897765017</v>
+        <v>0.06315749139782634</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.002545853870647263</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06731161173535405</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,51 +1304,57 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.5262036856861698</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5304237701781744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.029475587038405</v>
+        <v>5.017547900022748</v>
       </c>
       <c r="C17">
-        <v>1.291154987706648</v>
+        <v>1.287290921242572</v>
       </c>
       <c r="D17">
-        <v>0.2364082462756585</v>
+        <v>0.2345648220321976</v>
       </c>
       <c r="E17">
-        <v>0.1074163258143876</v>
+        <v>0.1056498919566415</v>
       </c>
       <c r="F17">
-        <v>0.3631073824049125</v>
+        <v>0.3656696712218164</v>
       </c>
       <c r="G17">
-        <v>0.1430698266394046</v>
+        <v>0.141543158694148</v>
       </c>
       <c r="H17">
-        <v>0.1300273020304559</v>
+        <v>0.1293947828663136</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1473986407634911</v>
+        <v>0.1824728909235773</v>
       </c>
       <c r="K17">
-        <v>0.05716747756064566</v>
+        <v>0.06203689963483705</v>
       </c>
       <c r="L17">
-        <v>0.0796507102724533</v>
+        <v>0.06413728524249063</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.003236523060667486</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07786347818804629</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,51 +1363,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.562660447614121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.572480203926176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.90940475125484</v>
+        <v>4.898150684787652</v>
       </c>
       <c r="C18">
-        <v>1.276364636604569</v>
+        <v>1.280489697795986</v>
       </c>
       <c r="D18">
-        <v>0.2686503892004168</v>
+        <v>0.267007119866264</v>
       </c>
       <c r="E18">
-        <v>0.1410107925756208</v>
+        <v>0.1392862631446121</v>
       </c>
       <c r="F18">
-        <v>0.4109560104023942</v>
+        <v>0.4128197301164889</v>
       </c>
       <c r="G18">
-        <v>0.1650287522622165</v>
+        <v>0.158609765534564</v>
       </c>
       <c r="H18">
-        <v>0.07712717528868041</v>
+        <v>0.07652032632729089</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1602329201279673</v>
+        <v>0.1991698901269956</v>
       </c>
       <c r="K18">
-        <v>0.06013012391084771</v>
+        <v>0.06465883178368748</v>
       </c>
       <c r="L18">
-        <v>0.1108761013917317</v>
+        <v>0.06517593997159332</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.003858472547613623</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1090189905696128</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,51 +1422,57 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.6360322119744382</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.6442274341318068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.871469064448604</v>
+        <v>4.860067571686443</v>
       </c>
       <c r="C19">
-        <v>1.286759599300808</v>
+        <v>1.301524891971042</v>
       </c>
       <c r="D19">
-        <v>0.3183668144737481</v>
+        <v>0.3174730991218695</v>
       </c>
       <c r="E19">
-        <v>0.1963394655930415</v>
+        <v>0.1946939556266614</v>
       </c>
       <c r="F19">
-        <v>0.4803098673125916</v>
+        <v>0.479316869286464</v>
       </c>
       <c r="G19">
-        <v>0.1968753807432435</v>
+        <v>0.1871633112836264</v>
       </c>
       <c r="H19">
-        <v>0.03273327730926212</v>
+        <v>0.03207943676788005</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1769896296991647</v>
+        <v>0.2162434158946596</v>
       </c>
       <c r="K19">
-        <v>0.06334042038444876</v>
+        <v>0.06728806061911108</v>
       </c>
       <c r="L19">
-        <v>0.1718925640676048</v>
+        <v>0.06640129926577454</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.004729882341393932</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1697451169771185</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,51 +1481,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.738642850232381</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.7399955173243882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.06492878366754</v>
+        <v>5.051059627751442</v>
       </c>
       <c r="C20">
-        <v>1.367736334709832</v>
+        <v>1.400762497533037</v>
       </c>
       <c r="D20">
-        <v>0.4156783138365796</v>
+        <v>0.4172836930040091</v>
       </c>
       <c r="E20">
-        <v>0.3100857127942476</v>
+        <v>0.308722363745396</v>
       </c>
       <c r="F20">
-        <v>0.6077227321612</v>
+        <v>0.5970867546830192</v>
       </c>
       <c r="G20">
-        <v>0.2553400669641448</v>
+        <v>0.2481307156151473</v>
       </c>
       <c r="H20">
-        <v>0.01009645626664346</v>
+        <v>0.009175929525585325</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2041122650992548</v>
+        <v>0.231302169903195</v>
       </c>
       <c r="K20">
-        <v>0.06664691490162866</v>
+        <v>0.06886746931750931</v>
       </c>
       <c r="L20">
-        <v>0.312375805213577</v>
+        <v>0.06699214793506547</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.006620772878369152</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3091512756543295</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,51 +1540,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.9195627440468428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8977768499119776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.695263828633813</v>
+        <v>5.674778549785515</v>
       </c>
       <c r="C21">
-        <v>1.537509129139607</v>
+        <v>1.570633944966687</v>
       </c>
       <c r="D21">
-        <v>0.4683278092648493</v>
+        <v>0.4768475005262474</v>
       </c>
       <c r="E21">
-        <v>0.3529089417466764</v>
+        <v>0.3525864440783124</v>
       </c>
       <c r="F21">
-        <v>0.6624268500157768</v>
+        <v>0.6268324439283504</v>
       </c>
       <c r="G21">
-        <v>0.2804613385934402</v>
+        <v>0.3281446422032843</v>
       </c>
       <c r="H21">
-        <v>0.01427730082928863</v>
+        <v>0.01281669196060614</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2092037373747928</v>
+        <v>0.1712884487397659</v>
       </c>
       <c r="K21">
-        <v>0.05691481799821396</v>
+        <v>0.0570117000506416</v>
       </c>
       <c r="L21">
-        <v>0.3581371866784622</v>
+        <v>0.06177400345610018</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.00623388628556576</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3527861909338696</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,51 +1599,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.9838879297278424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9020471692257104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.107489380409675</v>
+        <v>6.0823383851735</v>
       </c>
       <c r="C22">
-        <v>1.647064995377548</v>
+        <v>1.678412827503735</v>
       </c>
       <c r="D22">
-        <v>0.4985239625505642</v>
+        <v>0.5120646660407999</v>
       </c>
       <c r="E22">
-        <v>0.3752960827191956</v>
+        <v>0.3757701969551448</v>
       </c>
       <c r="F22">
-        <v>0.6934799216576835</v>
+        <v>0.640234466941159</v>
       </c>
       <c r="G22">
-        <v>0.2951689754330715</v>
+        <v>0.3863360297119982</v>
       </c>
       <c r="H22">
-        <v>0.01723964886621654</v>
+        <v>0.01538514252320045</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.211743700439186</v>
+        <v>0.1384898650230042</v>
       </c>
       <c r="K22">
-        <v>0.05087959175770607</v>
+        <v>0.04961629631016962</v>
       </c>
       <c r="L22">
-        <v>0.380582782566691</v>
+        <v>0.05883006711571637</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.006215319452331336</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.373787693182166</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,51 +1658,57 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.020642547921994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.8966180416763052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.88741055307662</v>
+        <v>5.864912089665779</v>
       </c>
       <c r="C23">
-        <v>1.588578664977149</v>
+        <v>1.622508556628816</v>
       </c>
       <c r="D23">
-        <v>0.4823982769947861</v>
+        <v>0.4925315047650258</v>
       </c>
       <c r="E23">
-        <v>0.3633396321019617</v>
+        <v>0.3632333608278984</v>
       </c>
       <c r="F23">
-        <v>0.6767938909396989</v>
+        <v>0.6352993371282807</v>
       </c>
       <c r="G23">
-        <v>0.287223194498182</v>
+        <v>0.3480090766532271</v>
       </c>
       <c r="H23">
-        <v>0.0156291445115152</v>
+        <v>0.01400289617538697</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2103346459253572</v>
+        <v>0.1601310593392213</v>
       </c>
       <c r="K23">
-        <v>0.05402988168758238</v>
+        <v>0.05369372370090808</v>
       </c>
       <c r="L23">
-        <v>0.3685943456880949</v>
+        <v>0.06039103622621689</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.006301623525128086</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3627096379299246</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,51 +1717,57 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.000711076531587</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9047285645313536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.055159985557793</v>
+        <v>5.041310230723127</v>
       </c>
       <c r="C24">
-        <v>1.367340149771621</v>
+        <v>1.401492352378057</v>
       </c>
       <c r="D24">
-        <v>0.4215146520172084</v>
+        <v>0.4231946369563389</v>
       </c>
       <c r="E24">
-        <v>0.3182159153362605</v>
+        <v>0.3168682442510544</v>
       </c>
       <c r="F24">
-        <v>0.6159744207339131</v>
+        <v>0.6050622411633952</v>
       </c>
       <c r="G24">
-        <v>0.2591554583724047</v>
+        <v>0.2512265429683751</v>
       </c>
       <c r="H24">
-        <v>0.01014970658795033</v>
+        <v>0.009221822884782342</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2061340265002869</v>
+        <v>0.2337300861878688</v>
       </c>
       <c r="K24">
-        <v>0.06746527218626763</v>
+        <v>0.0695424655803194</v>
       </c>
       <c r="L24">
-        <v>0.3233637840505139</v>
+        <v>0.06726880215403908</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.006845202469344613</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3200982192351489</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,51 +1776,57 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.9318827056774097</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.9094443277559208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.15898735426947</v>
+        <v>4.151736821672557</v>
       </c>
       <c r="C25">
-        <v>1.129005359584824</v>
+        <v>1.146253193029452</v>
       </c>
       <c r="D25">
-        <v>0.3561428448696802</v>
+        <v>0.3564668865756033</v>
       </c>
       <c r="E25">
-        <v>0.269782805054696</v>
+        <v>0.2686967207848028</v>
       </c>
       <c r="F25">
-        <v>0.554878947975439</v>
+        <v>0.5508325748481795</v>
       </c>
       <c r="G25">
-        <v>0.2326962982660064</v>
+        <v>0.2209356946560135</v>
       </c>
       <c r="H25">
-        <v>0.005401091298267713</v>
+        <v>0.004931364188701937</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2038003021629038</v>
+        <v>0.2393845490957887</v>
       </c>
       <c r="K25">
-        <v>0.08485633165790674</v>
+        <v>0.08662767288991535</v>
       </c>
       <c r="L25">
-        <v>0.2748274575451433</v>
+        <v>0.07561440176929946</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.008339273579084594</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2727759870919613</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.8703015649091554</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8640036749225288</v>
       </c>
     </row>
   </sheetData>
